--- a/Code/Results/Cases/Case_2_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.51426471657979</v>
+        <v>17.62046645117295</v>
       </c>
       <c r="C2">
-        <v>14.56029393687627</v>
+        <v>9.724763616072106</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.235672438554558</v>
+        <v>10.7878164373659</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>27.09428596900735</v>
+        <v>32.54262084097724</v>
       </c>
       <c r="H2">
-        <v>9.336403471017841</v>
+        <v>15.13093294753925</v>
       </c>
       <c r="I2">
-        <v>13.56067324121445</v>
+        <v>22.78502735584803</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.50119666069943</v>
+        <v>9.998072943991669</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.83541463534349</v>
+        <v>16.99069793147803</v>
       </c>
       <c r="C3">
-        <v>13.70717798415108</v>
+        <v>9.313849223107676</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.297114372776232</v>
+        <v>10.82561022885022</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>26.3216899297701</v>
+        <v>32.66164659694616</v>
       </c>
       <c r="H3">
-        <v>9.396238269310162</v>
+        <v>15.21542247173364</v>
       </c>
       <c r="I3">
-        <v>13.88968095548941</v>
+        <v>22.96726131102758</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.227325811097685</v>
+        <v>9.97096373439955</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.74593639448462</v>
+        <v>16.5940517925959</v>
       </c>
       <c r="C4">
-        <v>13.15788189310671</v>
+        <v>9.050361998562131</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.338300316957176</v>
+        <v>10.85038888027536</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>25.90805006932075</v>
+        <v>32.75352010666416</v>
       </c>
       <c r="H4">
-        <v>9.447604176134929</v>
+        <v>15.27163499439816</v>
       </c>
       <c r="I4">
-        <v>14.11603945398486</v>
+        <v>23.0865002819586</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.058657390326722</v>
+        <v>9.956190575717025</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.28707889096022</v>
+        <v>16.43015215960765</v>
       </c>
       <c r="C5">
-        <v>12.92766794295958</v>
+        <v>8.940267621025136</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.355930304053875</v>
+        <v>10.86088232704079</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>25.75444883042973</v>
+        <v>32.79563241182682</v>
       </c>
       <c r="H5">
-        <v>9.47197380205259</v>
+        <v>15.29562779856365</v>
       </c>
       <c r="I5">
-        <v>14.21391333767856</v>
+        <v>23.13693289393083</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.989878898429613</v>
+        <v>9.950645045410047</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.20998295035459</v>
+        <v>16.40280762275018</v>
       </c>
       <c r="C6">
-        <v>12.8890578003785</v>
+        <v>8.921825108746329</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.358908207500868</v>
+        <v>10.86264868112749</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>25.72983565184933</v>
+        <v>32.80290578096026</v>
       </c>
       <c r="H6">
-        <v>9.476221133033921</v>
+        <v>15.29967723150012</v>
       </c>
       <c r="I6">
-        <v>14.23049199710393</v>
+        <v>23.14541826968934</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.978458193205188</v>
+        <v>9.949752988064446</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.73980853341386</v>
+        <v>16.59185020991713</v>
       </c>
       <c r="C7">
-        <v>13.15480287978009</v>
+        <v>9.048888114964296</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.338534684281397</v>
+        <v>10.85052879489772</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>25.90591847230104</v>
+        <v>32.75406919831043</v>
       </c>
       <c r="H7">
-        <v>9.447919225631695</v>
+        <v>15.27195417955667</v>
       </c>
       <c r="I7">
-        <v>14.11733722514001</v>
+        <v>23.0871729838823</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.057729883739642</v>
+        <v>9.956113860058364</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.94748799658206</v>
+        <v>17.40552909537951</v>
       </c>
       <c r="C8">
-        <v>14.27144183662233</v>
+        <v>9.585452222204305</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.256124586671142</v>
+        <v>10.80052146196434</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>26.81513552705035</v>
+        <v>32.57973057961043</v>
       </c>
       <c r="H8">
-        <v>9.353851197226112</v>
+        <v>15.15916237604154</v>
       </c>
       <c r="I8">
-        <v>13.66874907368645</v>
+        <v>22.84633341500292</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.406919322719347</v>
+        <v>9.988339634568238</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.8177246979043</v>
+        <v>18.91258995164164</v>
       </c>
       <c r="C9">
-        <v>16.25863657089241</v>
+        <v>10.54555050614659</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.123136729404762</v>
+        <v>10.71492229519224</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>29.088593104663</v>
+        <v>32.38909182041005</v>
       </c>
       <c r="H9">
-        <v>9.296625705259686</v>
+        <v>14.97258079905417</v>
       </c>
       <c r="I9">
-        <v>13.00733948010278</v>
+        <v>22.43259792142383</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.084459951432404</v>
+        <v>10.06619715723517</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.3906911657889</v>
+        <v>19.95472136127479</v>
       </c>
       <c r="C10">
-        <v>17.59620266555442</v>
+        <v>11.19107713815662</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.04463917059614</v>
+        <v>10.659608301623</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>31.06400274468579</v>
+        <v>32.34385013306392</v>
       </c>
       <c r="H10">
-        <v>9.347924830492612</v>
+        <v>14.85687219879648</v>
       </c>
       <c r="I10">
-        <v>12.69372952775406</v>
+        <v>22.16468729137451</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.574409674344933</v>
+        <v>10.13205649145619</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.50464901178492</v>
+        <v>20.41275152379852</v>
       </c>
       <c r="C11">
-        <v>18.1787144499222</v>
+        <v>11.47115639621009</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.013535689401143</v>
+        <v>10.63608475995331</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>32.02926385598197</v>
+        <v>32.34431946258776</v>
       </c>
       <c r="H11">
-        <v>9.395001097722737</v>
+        <v>14.80893486993093</v>
       </c>
       <c r="I11">
-        <v>12.59832536804447</v>
+        <v>22.0507231770008</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.7951107790267</v>
+        <v>10.1638290137541</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.91854408816492</v>
+        <v>20.58375428830663</v>
       </c>
       <c r="C12">
-        <v>18.39563481703936</v>
+        <v>11.57522433708122</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.002460429858487</v>
+        <v>10.62741238155755</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>32.40438286563614</v>
+        <v>32.34755420492404</v>
       </c>
       <c r="H12">
-        <v>9.416528534073491</v>
+        <v>14.79146309847263</v>
       </c>
       <c r="I12">
-        <v>12.56989101826436</v>
+        <v>22.00871312180251</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.87834657773141</v>
+        <v>10.17611468887578</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.82975422329129</v>
+        <v>20.54703644277129</v>
       </c>
       <c r="C13">
-        <v>18.34907884396788</v>
+        <v>11.55290060417304</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.004813732665863</v>
+        <v>10.62926966393389</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>32.32316695968752</v>
+        <v>32.34672116467065</v>
       </c>
       <c r="H13">
-        <v>9.411723072890991</v>
+        <v>14.79519558171655</v>
       </c>
       <c r="I13">
-        <v>12.57565788983294</v>
+        <v>22.01770964893696</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.860435603620392</v>
+        <v>10.17345755568009</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.53885834584093</v>
+        <v>20.42686971304789</v>
       </c>
       <c r="C14">
-        <v>18.19663360754976</v>
+        <v>11.47975825610323</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.012610186347788</v>
+        <v>10.63536656008985</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>32.05993262829622</v>
+        <v>32.34452416735288</v>
       </c>
       <c r="H14">
-        <v>9.396696366993851</v>
+        <v>14.80748377677509</v>
       </c>
       <c r="I14">
-        <v>12.59582655519661</v>
+        <v>22.047243974712</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.801965531721224</v>
+        <v>10.1648347097834</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.35964844718416</v>
+        <v>20.35294217017033</v>
       </c>
       <c r="C15">
-        <v>18.10278160771385</v>
+        <v>11.43469596746273</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.017478556674593</v>
+        <v>10.63913174464654</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>31.89994452100299</v>
+        <v>32.34357735358765</v>
       </c>
       <c r="H15">
-        <v>9.387982507345033</v>
+        <v>14.8150995032727</v>
       </c>
       <c r="I15">
-        <v>12.60920982608887</v>
+        <v>22.06548405493276</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.766106246292797</v>
+        <v>10.1595858593128</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.31677026638986</v>
+        <v>19.92445314671982</v>
       </c>
       <c r="C16">
-        <v>17.55761732531559</v>
+        <v>11.17249657131688</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.046767923940052</v>
+        <v>10.66117858363341</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>31.00226212192793</v>
+        <v>32.34424573682854</v>
       </c>
       <c r="H16">
-        <v>9.345350540864848</v>
+        <v>14.86010002861582</v>
       </c>
       <c r="I16">
-        <v>12.70099087736125</v>
+        <v>22.17229497768075</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.559940012305777</v>
+        <v>10.13001600738093</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.66265731417258</v>
+        <v>19.65737770896011</v>
       </c>
       <c r="C17">
-        <v>17.21657243973286</v>
+        <v>11.00813834369379</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.065943364937643</v>
+        <v>10.67512325065841</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>30.46863285647009</v>
+        <v>32.35007031328874</v>
       </c>
       <c r="H17">
-        <v>9.325481945308095</v>
+        <v>14.8889137251711</v>
       </c>
       <c r="I17">
-        <v>12.77002079847549</v>
+        <v>22.23985167187759</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.432883345971218</v>
+        <v>10.11233560426161</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.28109905283151</v>
+        <v>19.50226015470343</v>
       </c>
       <c r="C18">
-        <v>17.01796445674572</v>
+        <v>10.91232810195232</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.077403407176704</v>
+        <v>10.68329814399588</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>30.16797441115795</v>
+        <v>32.35540032737818</v>
       </c>
       <c r="H18">
-        <v>9.316271403754467</v>
+        <v>14.90592858124488</v>
       </c>
       <c r="I18">
-        <v>12.81411564805254</v>
+        <v>22.27945248524113</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.359599309632697</v>
+        <v>10.10233734858269</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.15098908152115</v>
+        <v>19.44948635954511</v>
       </c>
       <c r="C19">
-        <v>16.95029696131924</v>
+        <v>10.8796706273279</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.08135639712905</v>
+        <v>10.68609252868992</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>30.06725366120325</v>
+        <v>32.35754401689267</v>
       </c>
       <c r="H19">
-        <v>9.313524949718554</v>
+        <v>14.91176526773633</v>
       </c>
       <c r="I19">
-        <v>12.8297730524377</v>
+        <v>22.29298817495079</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.334752471302284</v>
+        <v>10.09898168204275</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.73283905067986</v>
+        <v>19.68596492798788</v>
       </c>
       <c r="C20">
-        <v>17.25313016724217</v>
+        <v>11.02576690354459</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.063857233682313</v>
+        <v>10.6736228503014</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>30.52478956851967</v>
+        <v>32.34924513301841</v>
       </c>
       <c r="H20">
-        <v>9.327365422646505</v>
+        <v>14.885800676389</v>
       </c>
       <c r="I20">
-        <v>12.7622116961574</v>
+        <v>22.23258308783923</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.446430124813315</v>
+        <v>10.11420005730109</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.62451534904924</v>
+        <v>20.46223290857537</v>
       </c>
       <c r="C21">
-        <v>18.24150929122254</v>
+        <v>11.50129628434713</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.010300757879318</v>
+        <v>10.63356936483988</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>32.13699025382725</v>
+        <v>32.34508630036451</v>
       </c>
       <c r="H21">
-        <v>9.401007359347274</v>
+        <v>14.80385590973141</v>
       </c>
       <c r="I21">
-        <v>12.58968633737626</v>
+        <v>22.03853786620575</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.81914894771332</v>
+        <v>10.16736060628126</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.81467204067069</v>
+        <v>20.95527592652889</v>
       </c>
       <c r="C22">
-        <v>18.86615768133749</v>
+        <v>11.80045740521205</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.979417512505467</v>
+        <v>10.60876453833135</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>33.24662115307338</v>
+        <v>32.36019684228493</v>
       </c>
       <c r="H22">
-        <v>9.4708388418162</v>
+        <v>14.75427247203437</v>
       </c>
       <c r="I22">
-        <v>12.52222110463637</v>
+        <v>21.91840009405692</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.060763999850547</v>
+        <v>10.20358195195574</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.18362125203635</v>
+        <v>20.69347813397865</v>
       </c>
       <c r="C23">
-        <v>18.53469462671578</v>
+        <v>11.64186466619555</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.995509146444092</v>
+        <v>10.62187783249281</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>32.64925580298157</v>
+        <v>32.35049227339657</v>
       </c>
       <c r="H23">
-        <v>9.431488328216901</v>
+        <v>14.78037085905793</v>
       </c>
       <c r="I23">
-        <v>12.55377577656711</v>
+        <v>21.98190565779669</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.931995630529567</v>
+        <v>10.18411697595592</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.70112703293331</v>
+        <v>19.67304553315482</v>
       </c>
       <c r="C24">
-        <v>17.23661032493195</v>
+        <v>11.01780113544689</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.06479901915408</v>
+        <v>10.67430068939624</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>30.4993820191326</v>
+        <v>32.34961202758838</v>
       </c>
       <c r="H24">
-        <v>9.326507033864376</v>
+        <v>14.88720668604995</v>
       </c>
       <c r="I24">
-        <v>12.7657285268812</v>
+        <v>22.23586684306413</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.44030636365888</v>
+        <v>10.1133566191463</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.81892955143195</v>
+        <v>18.51560330636324</v>
       </c>
       <c r="C25">
-        <v>15.74269315721926</v>
+        <v>10.29610104025474</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.155877490620349</v>
+        <v>10.73674711813148</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>28.42017547500931</v>
+        <v>32.42418513209</v>
       </c>
       <c r="H25">
-        <v>9.296878264083468</v>
+        <v>15.01932304845897</v>
       </c>
       <c r="I25">
-        <v>13.15910986561378</v>
+        <v>22.53821940065141</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.902338061651133</v>
+        <v>10.04359225348672</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.62046645117295</v>
+        <v>24.51426471657983</v>
       </c>
       <c r="C2">
-        <v>9.724763616072106</v>
+        <v>14.56029393687615</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.7878164373659</v>
+        <v>6.235672438554555</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>32.54262084097724</v>
+        <v>27.09428596900717</v>
       </c>
       <c r="H2">
-        <v>15.13093294753925</v>
+        <v>9.336403471017773</v>
       </c>
       <c r="I2">
-        <v>22.78502735584803</v>
+        <v>13.56067324121427</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.998072943991669</v>
+        <v>7.501196660699422</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.99069793147803</v>
+        <v>22.83541463534342</v>
       </c>
       <c r="C3">
-        <v>9.313849223107676</v>
+        <v>13.7071779841511</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.82561022885022</v>
+        <v>6.297114372776229</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>32.66164659694616</v>
+        <v>26.32168992977045</v>
       </c>
       <c r="H3">
-        <v>15.21542247173364</v>
+        <v>9.396238269310247</v>
       </c>
       <c r="I3">
-        <v>22.96726131102758</v>
+        <v>13.88968095548961</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.97096373439955</v>
+        <v>7.22732581109766</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.5940517925959</v>
+        <v>21.74593639448464</v>
       </c>
       <c r="C4">
-        <v>9.050361998562131</v>
+        <v>13.15788189310688</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.85038888027536</v>
+        <v>6.338300316957113</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>32.75352010666416</v>
+        <v>25.90805006932056</v>
       </c>
       <c r="H4">
-        <v>15.27163499439816</v>
+        <v>9.447604176134861</v>
       </c>
       <c r="I4">
-        <v>23.0865002819586</v>
+        <v>14.11603945398478</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.956190575717025</v>
+        <v>7.058657390326625</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.43015215960765</v>
+        <v>21.28707889096028</v>
       </c>
       <c r="C5">
-        <v>8.940267621025136</v>
+        <v>12.92766794295949</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.86088232704079</v>
+        <v>6.355930304053945</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>32.79563241182682</v>
+        <v>25.75444883042938</v>
       </c>
       <c r="H5">
-        <v>15.29562779856365</v>
+        <v>9.471973802052496</v>
       </c>
       <c r="I5">
-        <v>23.13693289393083</v>
+        <v>14.21391333767829</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.950645045410047</v>
+        <v>6.989878898429629</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.40280762275018</v>
+        <v>21.20998295035449</v>
       </c>
       <c r="C6">
-        <v>8.921825108746329</v>
+        <v>12.88905780037856</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.86264868112749</v>
+        <v>6.358908207501056</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>32.80290578096026</v>
+        <v>25.72983565184961</v>
       </c>
       <c r="H6">
-        <v>15.29967723150012</v>
+        <v>9.476221133034034</v>
       </c>
       <c r="I6">
-        <v>23.14541826968934</v>
+        <v>14.23049199710418</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.949752988064446</v>
+        <v>6.978458193205279</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.59185020991713</v>
+        <v>21.73980853341392</v>
       </c>
       <c r="C7">
-        <v>9.048888114964296</v>
+        <v>13.15480287977992</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.85052879489772</v>
+        <v>6.338534684281276</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>32.75406919831043</v>
+        <v>25.90591847230093</v>
       </c>
       <c r="H7">
-        <v>15.27195417955667</v>
+        <v>9.447919225631594</v>
       </c>
       <c r="I7">
-        <v>23.0871729838823</v>
+        <v>14.11733722513982</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.956113860058364</v>
+        <v>7.057729883739605</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.40552909537951</v>
+        <v>23.94748799658201</v>
       </c>
       <c r="C8">
-        <v>9.585452222204305</v>
+        <v>14.27144183662236</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.80052146196434</v>
+        <v>6.256124586671084</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>32.57973057961043</v>
+        <v>26.81513552705088</v>
       </c>
       <c r="H8">
-        <v>15.15916237604154</v>
+        <v>9.353851197226223</v>
       </c>
       <c r="I8">
-        <v>22.84633341500292</v>
+        <v>13.66874907368684</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.988339634568238</v>
+        <v>7.406919322719332</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.91258995164164</v>
+        <v>27.81772469790431</v>
       </c>
       <c r="C9">
-        <v>10.54555050614659</v>
+        <v>16.25863657089219</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.71492229519224</v>
+        <v>6.123136729404766</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>32.38909182041005</v>
+        <v>29.08859310466305</v>
       </c>
       <c r="H9">
-        <v>14.97258079905417</v>
+        <v>9.296625705259766</v>
       </c>
       <c r="I9">
-        <v>22.43259792142383</v>
+        <v>13.00733948010279</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.06619715723517</v>
+        <v>8.084459951432459</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.95472136127479</v>
+        <v>30.39069116578891</v>
       </c>
       <c r="C10">
-        <v>11.19107713815662</v>
+        <v>17.5962026655546</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.659608301623</v>
+        <v>6.044639170596263</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>32.34385013306392</v>
+        <v>31.06400274468592</v>
       </c>
       <c r="H10">
-        <v>14.85687219879648</v>
+        <v>9.347924830492586</v>
       </c>
       <c r="I10">
-        <v>22.16468729137451</v>
+        <v>12.69372952775407</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.13205649145619</v>
+        <v>8.574409674344935</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.41275152379852</v>
+        <v>31.50464901178492</v>
       </c>
       <c r="C11">
-        <v>11.47115639621009</v>
+        <v>18.17871444992226</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.63608475995331</v>
+        <v>6.013535689401144</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>32.34431946258776</v>
+        <v>32.02926385598202</v>
       </c>
       <c r="H11">
-        <v>14.80893486993093</v>
+        <v>9.395001097722757</v>
       </c>
       <c r="I11">
-        <v>22.0507231770008</v>
+        <v>12.5983253680445</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.1638290137541</v>
+        <v>8.795110779026682</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.58375428830663</v>
+        <v>31.918544088165</v>
       </c>
       <c r="C12">
-        <v>11.57522433708122</v>
+        <v>18.39563481703936</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.62741238155755</v>
+        <v>6.002460429858555</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>32.34755420492404</v>
+        <v>32.40438286563628</v>
       </c>
       <c r="H12">
-        <v>14.79146309847263</v>
+        <v>9.416528534073526</v>
       </c>
       <c r="I12">
-        <v>22.00871312180251</v>
+        <v>12.56989101826427</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.17611468887578</v>
+        <v>8.878346577731449</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.54703644277129</v>
+        <v>31.82975422329127</v>
       </c>
       <c r="C13">
-        <v>11.55290060417304</v>
+        <v>18.34907884396778</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.62926966393389</v>
+        <v>6.004813732665816</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>32.34672116467065</v>
+        <v>32.32316695968762</v>
       </c>
       <c r="H13">
-        <v>14.79519558171655</v>
+        <v>9.411723072891039</v>
       </c>
       <c r="I13">
-        <v>22.01770964893696</v>
+        <v>12.57565788983303</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.17345755568009</v>
+        <v>8.860435603620381</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.42686971304789</v>
+        <v>31.53885834584095</v>
       </c>
       <c r="C14">
-        <v>11.47975825610323</v>
+        <v>18.19663360754979</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.63536656008985</v>
+        <v>6.012610186347914</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>32.34452416735288</v>
+        <v>32.05993262829634</v>
       </c>
       <c r="H14">
-        <v>14.80748377677509</v>
+        <v>9.396696366993837</v>
       </c>
       <c r="I14">
-        <v>22.047243974712</v>
+        <v>12.59582655519666</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.1648347097834</v>
+        <v>8.801965531721246</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.35294217017033</v>
+        <v>31.35964844718421</v>
       </c>
       <c r="C15">
-        <v>11.43469596746273</v>
+        <v>18.10278160771396</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.63913174464654</v>
+        <v>6.017478556674723</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>32.34357735358765</v>
+        <v>31.89994452100306</v>
       </c>
       <c r="H15">
-        <v>14.8150995032727</v>
+        <v>9.387982507345026</v>
       </c>
       <c r="I15">
-        <v>22.06548405493276</v>
+        <v>12.60920982608886</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.1595858593128</v>
+        <v>8.766106246292786</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.92445314671982</v>
+        <v>30.31677026638984</v>
       </c>
       <c r="C16">
-        <v>11.17249657131688</v>
+        <v>17.55761732531573</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.66117858363341</v>
+        <v>6.046767923940058</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>32.34424573682854</v>
+        <v>31.00226212192795</v>
       </c>
       <c r="H16">
-        <v>14.86010002861582</v>
+        <v>9.345350540864855</v>
       </c>
       <c r="I16">
-        <v>22.17229497768075</v>
+        <v>12.70099087736133</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.13001600738093</v>
+        <v>8.559940012305759</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.65737770896011</v>
+        <v>29.66265731417266</v>
       </c>
       <c r="C17">
-        <v>11.00813834369379</v>
+        <v>17.21657243973288</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.67512325065841</v>
+        <v>6.065943364937717</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>32.35007031328874</v>
+        <v>30.46863285647027</v>
       </c>
       <c r="H17">
-        <v>14.8889137251711</v>
+        <v>9.325481945308111</v>
       </c>
       <c r="I17">
-        <v>22.23985167187759</v>
+        <v>12.77002079847549</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.11233560426161</v>
+        <v>8.432883345971218</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.50226015470343</v>
+        <v>29.2810990528315</v>
       </c>
       <c r="C18">
-        <v>10.91232810195232</v>
+        <v>17.01796445674573</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.68329814399588</v>
+        <v>6.077403407176826</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>32.35540032737818</v>
+        <v>30.16797441115823</v>
       </c>
       <c r="H18">
-        <v>14.90592858124488</v>
+        <v>9.316271403754566</v>
       </c>
       <c r="I18">
-        <v>22.27945248524113</v>
+        <v>12.81411564805277</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.10233734858269</v>
+        <v>8.359599309632701</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.44948635954511</v>
+        <v>29.15098908152125</v>
       </c>
       <c r="C19">
-        <v>10.8796706273279</v>
+        <v>16.95029696131923</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.68609252868992</v>
+        <v>6.081356397129178</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>32.35754401689267</v>
+        <v>30.06725366120346</v>
       </c>
       <c r="H19">
-        <v>14.91176526773633</v>
+        <v>9.313524949718566</v>
       </c>
       <c r="I19">
-        <v>22.29298817495079</v>
+        <v>12.8297730524376</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.09898168204275</v>
+        <v>8.334752471302295</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.68596492798788</v>
+        <v>29.7328390506798</v>
       </c>
       <c r="C20">
-        <v>11.02576690354459</v>
+        <v>17.25313016724239</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.6736228503014</v>
+        <v>6.063857233682365</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>32.34924513301841</v>
+        <v>30.52478956851978</v>
       </c>
       <c r="H20">
-        <v>14.885800676389</v>
+        <v>9.327365422646617</v>
       </c>
       <c r="I20">
-        <v>22.23258308783923</v>
+        <v>12.7622116961576</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.11420005730109</v>
+        <v>8.44643012481329</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.46223290857537</v>
+        <v>31.62451534904925</v>
       </c>
       <c r="C21">
-        <v>11.50129628434713</v>
+        <v>18.24150929122249</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.63356936483988</v>
+        <v>6.010300757879268</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>32.34508630036451</v>
+        <v>32.13699025382737</v>
       </c>
       <c r="H21">
-        <v>14.80385590973141</v>
+        <v>9.401007359347267</v>
       </c>
       <c r="I21">
-        <v>22.03853786620575</v>
+        <v>12.58968633737626</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.16736060628126</v>
+        <v>8.8191489477133</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.95527592652889</v>
+        <v>32.81467204067066</v>
       </c>
       <c r="C22">
-        <v>11.80045740521205</v>
+        <v>18.86615768133738</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.60876453833135</v>
+        <v>5.979417512505631</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>32.36019684228493</v>
+        <v>33.24662115307351</v>
       </c>
       <c r="H22">
-        <v>14.75427247203437</v>
+        <v>9.470838841816239</v>
       </c>
       <c r="I22">
-        <v>21.91840009405692</v>
+        <v>12.52222110463651</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.20358195195574</v>
+        <v>9.060763999850559</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.69347813397865</v>
+        <v>32.18362125203632</v>
       </c>
       <c r="C23">
-        <v>11.64186466619555</v>
+        <v>18.5346946267159</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.62187783249281</v>
+        <v>5.995509146444037</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>32.35049227339657</v>
+        <v>32.64925580298173</v>
       </c>
       <c r="H23">
-        <v>14.78037085905793</v>
+        <v>9.431488328217014</v>
       </c>
       <c r="I23">
-        <v>21.98190565779669</v>
+        <v>12.55377577656722</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.18411697595592</v>
+        <v>8.931995630529551</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.67304553315482</v>
+        <v>29.7011270329334</v>
       </c>
       <c r="C24">
-        <v>11.01780113544689</v>
+        <v>17.23661032493192</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.67430068939624</v>
+        <v>6.064799019154042</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>32.34961202758838</v>
+        <v>30.4993820191327</v>
       </c>
       <c r="H24">
-        <v>14.88720668604995</v>
+        <v>9.326507033864305</v>
       </c>
       <c r="I24">
-        <v>22.23586684306413</v>
+        <v>12.76572852688104</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.1133566191463</v>
+        <v>8.440306363658854</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.51560330636324</v>
+        <v>26.81892955143189</v>
       </c>
       <c r="C25">
-        <v>10.29610104025474</v>
+        <v>15.74269315721942</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.73674711813148</v>
+        <v>6.155877490620415</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>32.42418513209</v>
+        <v>28.42017547500954</v>
       </c>
       <c r="H25">
-        <v>15.01932304845897</v>
+        <v>9.296878264083551</v>
       </c>
       <c r="I25">
-        <v>22.53821940065141</v>
+        <v>13.15910986561404</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.04359225348672</v>
+        <v>7.902338061651067</v>
       </c>
       <c r="M25">
         <v>0</v>
